--- a/Resources/DataFile/MonsterInfo.xlsx
+++ b/Resources/DataFile/MonsterInfo.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDirectX\GameEngine\Client2D\Bin\DataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DirectX\DirectX\Resources\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Monster" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Resources/DataFile/MonsterInfo.xlsx
+++ b/Resources/DataFile/MonsterInfo.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Monster" sheetId="1" r:id="rId1"/>
+    <sheet name="MonsterInfo" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,98 +24,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
-  <si>
-    <t>Class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+  <si>
+    <t>SpikeFiend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fallen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tainted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andariel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diablo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunVelocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxGrp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MinGrp</t>
-  </si>
-  <si>
-    <t>MaxGrp</t>
-  </si>
-  <si>
-    <t>CorpseSel</t>
-  </si>
-  <si>
-    <t>InTown</t>
-  </si>
-  <si>
-    <t>MagicResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSpawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDoorOpen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsInTown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCourpseSel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSpecialAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropEXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropGoldPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropGoldMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropGoldMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeAtkCoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeAtkDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialDamageResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FireResist</t>
-  </si>
-  <si>
-    <t>DamageRegen</t>
-  </si>
-  <si>
-    <t>eOpenDoors</t>
-  </si>
-  <si>
-    <t>MinHP</t>
-  </si>
-  <si>
-    <t>MaxHP</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>ToBlock</t>
-  </si>
-  <si>
-    <t>SpikeFiend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zombie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fallen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tainted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andariel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diablo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Velocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageResist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningResist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,55 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PoisonResist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunVelocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialAttackFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialAttackCoolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemDropPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCodeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldDropPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropGoldMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropGoldMax</t>
+    <t>PosionResist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,117 +537,117 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -636,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -651,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -662,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -674,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -682,183 +701,183 @@
         <v>3</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
       <c r="D8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>1281</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>44675</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>666</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>5270</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>666</v>
+        <v>800</v>
       </c>
       <c r="F13">
-        <v>5270</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>2400</v>
       </c>
       <c r="F14">
-        <v>77</v>
+        <v>3000</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -869,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -881,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -898,59 +917,59 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -964,197 +983,197 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>-50</v>
+        <v>666</v>
       </c>
       <c r="F21">
-        <v>33</v>
+        <v>5270</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>666</v>
       </c>
       <c r="F22">
-        <v>33</v>
+        <v>5270</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>50</v>
       </c>
       <c r="F23">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1281</v>
+        <v>164</v>
       </c>
       <c r="F27">
-        <v>44675</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -1185,22 +1204,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>-50</v>
       </c>
       <c r="F30">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>38</v>
@@ -1208,22 +1227,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
         <v>50</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>800</v>
-      </c>
       <c r="F31">
-        <v>1000</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -1231,29 +1250,53 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2400</v>
+        <v>50</v>
       </c>
       <c r="F32">
-        <v>3000</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>